--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873133.5910922351</v>
+        <v>-875474.7771948834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6650006.965761232</v>
+        <v>6654055.582836228</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14215886.62834825</v>
+        <v>14215670.78940324</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>88.39791897384191</v>
       </c>
       <c r="D2" t="n">
-        <v>110.6777662621513</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.9357517829678</v>
+        <v>72.35053471106093</v>
       </c>
     </row>
     <row r="3">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.93365366419884</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>291.995774466724</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>174.7087221213939</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>146.5840649587253</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>182.8258003202644</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>68.74941780921868</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>307.7945329233997</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.70305798262098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>22.99537910748715</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.10947950434525</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396643</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671982</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>5.271898495668972</v>
+        <v>154.6517683852852</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098733976844</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.8388119732315</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>54.36332650894827</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098733976844</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>1.487860919361992</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.97675627223903</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>159.7836621715539</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>73.23854433026345</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>47.62401295341017</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>165.8824546654716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>49.00186811940988</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>187.4326629459443</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>58.40943379163127</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>210.0733026242466</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3202,7 +3202,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572902</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3320,7 +3320,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,7 +3439,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572902</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.4362667667478</v>
+        <v>926.4088165244366</v>
       </c>
       <c r="C2" t="n">
-        <v>976.4362667667478</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.03610683087</v>
+        <v>1313.008656588558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.2364047476477</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296039</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.100961840373</v>
+        <v>1152.640269254487</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1152.640269254487</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1152.640269254487</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>766.8520166562423</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2289.469457174609</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2289.469457174609</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2289.469457174609</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.700801904495</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.700801904495</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1936.700801904495</v>
+        <v>1152.640269254487</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="W7" t="n">
-        <v>543.4564586304098</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="X7" t="n">
-        <v>543.4564586304098</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="Y7" t="n">
-        <v>543.4564586304098</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2572.676545175767</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2572.676545175767</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2318.914759813859</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.914759813859</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.146104543745</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.680346282665</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541695</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541695</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2373.882098979286</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.919582038874</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.653883432124</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1260.865630833879</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>849.8797260442718</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>434.7950073001367</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.0857612204603</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>450.8252547561874</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1104.019032496583</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1966.640300670609</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2498.060818153523</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3260.229684655541</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3761.176171960854</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4472.802129300157</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.789986356389</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.48148347198</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.450030107279</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4207.918571893984</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3876.855684550414</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.087029280299</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.621271019219</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.481939043408</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6607132131653</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2076839320383</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2732742707869</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0358192653314</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5012612922165</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1315968509426</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5663054225329</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6304655901491</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8557720172221</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1570130847063</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.80319943632</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.652959194794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.083510842052</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.354558330745</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.174866856816</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.174866856816</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.615051841812</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.945592889373</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.877314163664</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.725205931922</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.48784920372</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.636348998187</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.876050233233</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.0332524978547</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0332524978547</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D13" t="n">
-        <v>653.916613085519</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E13" t="n">
-        <v>653.916613085519</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>507.0266655876086</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.3183256956044</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>193.0522098693235</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3023286490538</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6628557168181</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4207503875592</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.732300888672</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.315286479766</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.882503112266</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.837653793006</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1950.996296790519</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1950.996296790519</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1950.996296790519</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1729.206167402228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.206167402228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.881017406602</v>
+        <v>1289.260076339989</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.463847369642</v>
+        <v>1289.260076339989</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.474296471624</v>
+        <v>1061.270525441972</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.6817173280945</v>
+        <v>840.4779462984418</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,64 +5264,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846836</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2120.457898518758</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.758180993044</v>
+        <v>2667.236715577537</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.722831322499</v>
+        <v>3547.20136590699</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353934</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902941</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054954</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.568462566912</v>
+        <v>725.307188281635</v>
       </c>
       <c r="C16" t="n">
-        <v>709.6322796390051</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558178</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926992</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892247</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518523</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="V16" t="n">
-        <v>1288.206478295169</v>
+        <v>1611.828520656337</v>
       </c>
       <c r="W16" t="n">
-        <v>1288.206478295169</v>
+        <v>1322.411350619376</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.216927397152</v>
+        <v>1094.421799721359</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.216927397152</v>
+        <v>873.6292205778285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K17" t="n">
-        <v>848.0509105096021</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L17" t="n">
-        <v>1299.085123758011</v>
+        <v>1898.858917622701</v>
       </c>
       <c r="M17" t="n">
-        <v>1832.617028429936</v>
+        <v>2432.390822294622</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656582</v>
+        <v>2979.169639353402</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902941</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054954</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.6864413838521</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C19" t="n">
-        <v>709.6864413838521</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D19" t="n">
-        <v>559.5698019715163</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E19" t="n">
-        <v>411.6567083891232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7667608912128</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>97.06392426593177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.95764238422</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783336</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.855984141373</v>
       </c>
       <c r="X19" t="n">
-        <v>709.6864413838521</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.6864413838521</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5756,46 +5756,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5826,13 +5826,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.7441371531723</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C22" t="n">
-        <v>539.8079542252655</v>
+        <v>551.7617140858231</v>
       </c>
       <c r="D22" t="n">
-        <v>389.6913148129298</v>
+        <v>551.7617140858231</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>403.84862050343</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>256.9586730055196</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897388</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>890.3926019834121</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.3926019834121</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="23">
@@ -5984,28 +5984,28 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3329.011433084685</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3831.983903964022</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4226.7582703212</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.1336314069201</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C25" t="n">
-        <v>637.1336314069201</v>
+        <v>391.108414631688</v>
       </c>
       <c r="D25" t="n">
-        <v>487.0169919945844</v>
+        <v>240.9917752193523</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V25" t="n">
-        <v>1375.332931485428</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>1085.915761448467</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>857.9262105504503</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y25" t="n">
-        <v>637.1336314069201</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,34 +6303,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0669121539789</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1767.017543937083</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1477.914677062727</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.914677062727</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1188.497507025766</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>960.5079561277488</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.7153769842187</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.42518767663</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.5901955154781</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6649,22 +6649,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1744.148210928697</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1455.045344054341</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1200.360855848454</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>910.9436858114931</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>910.9436858114931</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>690.1511066679629</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,49 +6701,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519703</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819757</v>
@@ -6883,7 +6883,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,16 +6892,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,7 +6920,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6932,55 +6932,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2373.979363934262</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.758180993045</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7011,37 +7011,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
@@ -7120,7 +7120,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849073</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,46 +7172,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
-        <v>4302.335344088783</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821506</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416724</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D40" t="n">
-        <v>564.36161137741</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932531</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160446</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7561,7 +7561,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7591,16 +7591,16 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770975</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330834</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.961311426849</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7786,13 +7786,13 @@
         <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7816,22 +7816,22 @@
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>219.732930388235</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225793937</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>160.3329896347523</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.261923898709938e-11</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>63.01588120402295</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836477017</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.261923898709938e-11</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.7381496078611</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>39.48321557772579</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>316.9032015413803</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>19.79750571619206</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>384.8145893755052</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>361.281923749209</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>388.4310778980902</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>148.4180109385378</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.8749727971656</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.3021868730858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>69.58249272689008</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9357052032503077</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.219052476067773e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496179</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>246.865744828159</v>
+        <v>97.48587493854285</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>32.99316820870578</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>94.25214650926409</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>143.2671539949588</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>167.7328991167981</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>6.24214608747431</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,25 +24175,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.4711110587737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>98.80994969315901</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>86.25518865835642</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>130.8301120625274</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>32.11628633022488</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>108.8373873069966</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>9.475646651922631</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-8.100187187665142e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-8.100187187665142e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1196447.385667021</v>
+        <v>1196124.165160857</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1208480.149398046</v>
+        <v>1208600.93905046</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1248918.233185936</v>
+        <v>1248918.233185935</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1248918.233185935</v>
+        <v>1248918.233185936</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192026.3063317519</v>
+        <v>191972.4362473912</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>198487.023359131</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="F2" t="n">
         <v>198540.8934434915</v>
@@ -26329,28 +26329,28 @@
         <v>198540.8934434915</v>
       </c>
       <c r="H2" t="n">
-        <v>198540.8934434916</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="I2" t="n">
         <v>198540.8934434915</v>
       </c>
       <c r="J2" t="n">
-        <v>198540.8934434916</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="K2" t="n">
-        <v>198540.8934434916</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660704</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660708</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>724950.0977870518</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>2388.166286075784</v>
+        <v>-1.208955491504942e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.785625838441774e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.51509845838882e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153134.2501409024</v>
+        <v>153011.2610588579</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18350.09095773398</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231919018</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231919018</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="M4" t="n">
         <v>33605.65329740898</v>
       </c>
-      <c r="M4" t="n">
-        <v>33605.65329740896</v>
-      </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96317.65405691758</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633934.9010871045</v>
+        <v>-633998.6621516073</v>
       </c>
       <c r="C6" t="n">
-        <v>-60947.32245446663</v>
+        <v>-60947.32245446659</v>
       </c>
       <c r="D6" t="n">
-        <v>-60947.32245446663</v>
+        <v>-60947.32245446662</v>
       </c>
       <c r="E6" t="n">
-        <v>-641130.8194425725</v>
+        <v>-643435.7266130444</v>
       </c>
       <c r="F6" t="n">
-        <v>81620.71658451218</v>
+        <v>83941.68738036488</v>
       </c>
       <c r="G6" t="n">
-        <v>84008.88287058796</v>
+        <v>83941.687380362</v>
       </c>
       <c r="H6" t="n">
-        <v>84008.88287058802</v>
+        <v>83941.68738035933</v>
       </c>
       <c r="I6" t="n">
-        <v>84008.88287058796</v>
+        <v>83941.68738036216</v>
       </c>
       <c r="J6" t="n">
-        <v>-92414.33632200497</v>
+        <v>-92481.53181223075</v>
       </c>
       <c r="K6" t="n">
-        <v>84008.88287058802</v>
+        <v>83941.68738036217</v>
       </c>
       <c r="L6" t="n">
         <v>33742.00885968532</v>
       </c>
       <c r="M6" t="n">
-        <v>-58320.19668438527</v>
+        <v>-58320.19668438536</v>
       </c>
       <c r="N6" t="n">
-        <v>71322.11815455969</v>
+        <v>71322.11815455958</v>
       </c>
       <c r="O6" t="n">
         <v>71322.11815455963</v>
       </c>
       <c r="P6" t="n">
-        <v>71322.11815455946</v>
+        <v>71322.11815455963</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452002</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431011372</v>
+        <v>-1.927833778037307e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.0052753585317</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.8874039449927</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.2118852858201</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>114.8802712749874</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>41.7395982362639</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>78.45104049935898</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>103.6971980163266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>105.6662949997528</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>61.93656775506935</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.1289221993163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>195.5892742446077</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33983,13 +33983,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>358.8527477856495</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>659.7916946872687</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3346143171973</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978928</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>769.8675419212311</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>506.006552833649</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>718.814098322528</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951843</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780966</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581281</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531253</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502692</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N14" t="n">
-        <v>712.6348250476638</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509621</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222387</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170196</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K17" t="n">
-        <v>400.2071677594234</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400315</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882167</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>431.5324544115806</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,10 +36604,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>591.7850509906373</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>824.9562024295994</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>558.7186215464188</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>923.735705205732</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>900.2030395794358</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,25 +37783,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>844.0211922904224</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>700.7198463514495</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,10 +38184,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
